--- a/examples/ex050.MF_pipe.xlsx
+++ b/examples/ex050.MF_pipe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAF2E21-6977-452D-845C-F76F2CD09385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28724269-3C72-4B04-8B3E-AE593884188B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="1395" windowWidth="27990" windowHeight="19740" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33975" yWindow="840" windowWidth="27990" windowHeight="19740" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MF 1 " sheetId="118" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -997,61 +997,61 @@
                   <c:v>25.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.813695187983342</c:v>
+                  <c:v>28.816474058431645</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.009777120843658</c:v>
+                  <c:v>32.015616460687589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.196296954093313</c:v>
+                  <c:v>35.204975070401147</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.391177080437814</c:v>
+                  <c:v>38.402362329312488</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.607455814875379</c:v>
+                  <c:v>41.620708065145635</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.854901864928308</c:v>
+                  <c:v>44.869673935637344</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.140982108436127</c:v>
+                  <c:v>48.156621357882486</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.471470795958666</c:v>
+                  <c:v>51.487221074214936</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.850848942495702</c:v>
+                  <c:v>54.86585309932088</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58.28257568615301</c:v>
+                  <c:v>58.295878789909068</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>61.769278941468897</c:v>
+                  <c:v>61.779832323072817</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65.312893923432213</c:v>
+                  <c:v>65.319560116037309</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>68.914767396919416</c:v>
+                  <c:v>68.916325998649896</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>72.575739102947466</c:v>
+                  <c:v>72.570893548184131</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>76.296207836104557</c:v>
+                  <c:v>76.283593022289693</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80.076187090566123</c:v>
+                  <c:v>80.054377774081019</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>83.915353500049193</c:v>
+                  <c:v>83.882873348067861</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>87.813090153453189</c:v>
+                  <c:v>87.768421320035458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>91.76852608657633</c:v>
+                  <c:v>91.710119171298743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1629,61 +1629,61 @@
                   <c:v>25.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.813695187983342</c:v>
+                  <c:v>28.816474058431645</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.009777120843658</c:v>
+                  <c:v>32.015616460687589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.196296954093313</c:v>
+                  <c:v>35.204975070401147</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.391177080437814</c:v>
+                  <c:v>38.402362329312488</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.607455814875379</c:v>
+                  <c:v>41.620708065145635</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.854901864928308</c:v>
+                  <c:v>44.869673935637344</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.140982108436127</c:v>
+                  <c:v>48.156621357882486</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.471470795958666</c:v>
+                  <c:v>51.487221074214936</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.850848942495702</c:v>
+                  <c:v>54.86585309932088</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58.28257568615301</c:v>
+                  <c:v>58.295878789909068</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>61.769278941468897</c:v>
+                  <c:v>61.779832323072817</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65.312893923432213</c:v>
+                  <c:v>65.319560116037309</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>68.914767396919416</c:v>
+                  <c:v>68.916325998649896</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>72.575739102947466</c:v>
+                  <c:v>72.570893548184131</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>76.296207836104557</c:v>
+                  <c:v>76.283593022289693</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80.076187090566123</c:v>
+                  <c:v>80.054377774081019</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>83.915353500049193</c:v>
+                  <c:v>83.882873348067861</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>87.813090153453189</c:v>
+                  <c:v>87.768421320035458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>91.76852608657633</c:v>
+                  <c:v>91.710119171298743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2009,61 +2009,61 @@
                   <c:v>0.14207407035298489</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17984541992956538</c:v>
+                  <c:v>0.18033670675383556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19182919033191065</c:v>
+                  <c:v>0.19228897279985746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20332127035940387</c:v>
+                  <c:v>0.20373498920111524</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2144343636267797</c:v>
+                  <c:v>0.21478789168404763</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22524503554374697</c:v>
+                  <c:v>0.22552448304620759</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2358059458718465</c:v>
+                  <c:v>0.23599756657480464</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24615317939443779</c:v>
+                  <c:v>0.2462433417573742</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.256310911319032</c:v>
+                  <c:v>0.2562861147438284</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26629454138911518</c:v>
+                  <c:v>0.26614146512333886</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.27611290745147726</c:v>
+                  <c:v>0.27581848352087429</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.28576992286878061</c:v>
+                  <c:v>0.28532142630457774</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.29526583844231263</c:v>
+                  <c:v>0.29465098907265236</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.30459824817371506</c:v>
+                  <c:v>0.30380531885773604</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.31376291046919996</c:v>
+                  <c:v>0.31278083714223692</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.32275442776428581</c:v>
+                  <c:v>0.32157291718125763</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.33156681032422919</c:v>
+                  <c:v>0.33017644200355212</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.34019393985031032</c:v>
+                  <c:v>0.33858625944684351</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.34862994293844785</c:v>
+                  <c:v>0.34679754508883531</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.3568694817708451</c:v>
+                  <c:v>0.35480608131369684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2476,61 +2476,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>31.685360867303029</c:v>
+                  <c:v>31.756466646563716</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.875719045612456</c:v>
+                  <c:v>34.949837076811733</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.076354262287332</c:v>
+                  <c:v>38.153507443562617</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.300510587748377</c:v>
+                  <c:v>41.380527834205864</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.558115510693298</c:v>
+                  <c:v>44.640658909748353</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.856759088511616</c:v>
+                  <c:v>47.941341182031039</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.202309020727967</c:v>
+                  <c:v>51.288304745980604</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54.599312969652956</c:v>
+                  <c:v>54.685968773825238</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.051271318623961</c:v>
+                  <c:v>58.137712925475526</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>61.5608285223298</c:v>
+                  <c:v>61.646068254621525</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>65.129912129895487</c:v>
+                  <c:v>65.21285634659192</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>68.759837647594594</c:v>
+                  <c:v>68.839294631852056</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>72.451390878674374</c:v>
+                  <c:v>72.526079358133586</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76.204895310895182</c:v>
+                  <c:v>76.27345367933728</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80.020269497520843</c:v>
+                  <c:v>80.081265723332919</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>83.897077633143908</c:v>
+                  <c:v>83.949019778730673</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>87.834575342927877</c:v>
+                  <c:v>87.875922576815725</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>91.831751895477055</c:v>
+                  <c:v>91.860925853275106</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95.887369501532461</c:v>
+                  <c:v>95.902765841310668</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>100</c:v>
@@ -3108,61 +3108,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>31.685360867303029</c:v>
+                  <c:v>31.756466646563716</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.875719045612456</c:v>
+                  <c:v>34.949837076811733</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.076354262287332</c:v>
+                  <c:v>38.153507443562617</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.300510587748377</c:v>
+                  <c:v>41.380527834205864</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.558115510693298</c:v>
+                  <c:v>44.640658909748353</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.856759088511616</c:v>
+                  <c:v>47.941341182031039</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.202309020727967</c:v>
+                  <c:v>51.288304745980604</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54.599312969652956</c:v>
+                  <c:v>54.685968773825238</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.051271318623961</c:v>
+                  <c:v>58.137712925475526</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>61.5608285223298</c:v>
+                  <c:v>61.646068254621525</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>65.129912129895487</c:v>
+                  <c:v>65.21285634659192</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>68.759837647594594</c:v>
+                  <c:v>68.839294631852056</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>72.451390878674374</c:v>
+                  <c:v>72.526079358133586</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76.204895310895182</c:v>
+                  <c:v>76.27345367933728</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80.020269497520843</c:v>
+                  <c:v>80.081265723332919</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>83.897077633143908</c:v>
+                  <c:v>83.949019778730673</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>87.834575342927877</c:v>
+                  <c:v>87.875922576815725</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>91.831751895477055</c:v>
+                  <c:v>91.860925853275106</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95.887369501532461</c:v>
+                  <c:v>95.902765841310668</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>100</c:v>
@@ -3488,64 +3488,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.19244976343436151</c:v>
+                  <c:v>0.19318194147880505</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20415498976548713</c:v>
+                  <c:v>0.20483528000150814</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2154844151752042</c:v>
+                  <c:v>0.21610044973803261</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22651561434812695</c:v>
+                  <c:v>0.22705460167601615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2373015418058744</c:v>
+                  <c:v>0.23775036883381084</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24787804480418552</c:v>
+                  <c:v>0.24822337168661046</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25826864884733136</c:v>
+                  <c:v>0.25849700923201024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26848778092459302</c:v>
+                  <c:v>0.26858569261153148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.27854305725840511</c:v>
+                  <c:v>0.27849714395800429</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28843698809926049</c:v>
+                  <c:v>0.2882341106836423</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29816830391658689</c:v>
+                  <c:v>0.29779569816571028</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.30773302333772151</c:v>
+                  <c:v>0.30717844037946934</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.31712533385867453</c:v>
+                  <c:v>0.316377179157115</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.32633832682880543</c:v>
+                  <c:v>0.32538579362539538</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.3353646106174541</c:v>
+                  <c:v>0.3341978041261901</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.34419681578188549</c:v>
+                  <c:v>0.34280686511991465</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.35282800081634225</c:v>
+                  <c:v>0.35120715653785384</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.36125196494806727</c:v>
+                  <c:v>0.35939368105038338</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.36946347425567766</c:v>
+                  <c:v>0.36736247454855314</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.37745840823925542</c:v>
+                  <c:v>0.37511073792592414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3961,61 +3961,61 @@
                   <c:v>25.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.813695187983342</c:v>
+                  <c:v>28.816474058431645</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.009777120843658</c:v>
+                  <c:v>32.015616460687589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.196296954093313</c:v>
+                  <c:v>35.204975070401147</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.391177080437814</c:v>
+                  <c:v>38.402362329312488</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.607455814875379</c:v>
+                  <c:v>41.620708065145635</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.854901864928308</c:v>
+                  <c:v>44.869673935637344</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.140982108436127</c:v>
+                  <c:v>48.156621357882486</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.471470795958666</c:v>
+                  <c:v>51.487221074214936</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.850848942495702</c:v>
+                  <c:v>54.86585309932088</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58.28257568615301</c:v>
+                  <c:v>58.295878789909068</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>61.769278941468897</c:v>
+                  <c:v>61.779832323072817</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65.312893923432213</c:v>
+                  <c:v>65.319560116037309</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>68.914767396919416</c:v>
+                  <c:v>68.916325998649896</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>72.575739102947466</c:v>
+                  <c:v>72.570893548184131</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>76.296207836104557</c:v>
+                  <c:v>76.283593022289693</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80.076187090566123</c:v>
+                  <c:v>80.054377774081019</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>83.915353500049193</c:v>
+                  <c:v>83.882873348067861</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>87.813090153453189</c:v>
+                  <c:v>87.768421320035458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>91.76852608657633</c:v>
+                  <c:v>91.710119171298743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4141,61 +4141,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>31.685360867303029</c:v>
+                  <c:v>31.756466646563716</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.875719045612456</c:v>
+                  <c:v>34.949837076811733</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.076354262287332</c:v>
+                  <c:v>38.153507443562617</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.300510587748377</c:v>
+                  <c:v>41.380527834205864</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.558115510693298</c:v>
+                  <c:v>44.640658909748353</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.856759088511616</c:v>
+                  <c:v>47.941341182031039</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.202309020727967</c:v>
+                  <c:v>51.288304745980604</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54.599312969652956</c:v>
+                  <c:v>54.685968773825238</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.051271318623961</c:v>
+                  <c:v>58.137712925475526</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>61.5608285223298</c:v>
+                  <c:v>61.646068254621525</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>65.129912129895487</c:v>
+                  <c:v>65.21285634659192</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>68.759837647594594</c:v>
+                  <c:v>68.839294631852056</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>72.451390878674374</c:v>
+                  <c:v>72.526079358133586</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76.204895310895182</c:v>
+                  <c:v>76.27345367933728</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80.020269497520843</c:v>
+                  <c:v>80.081265723332919</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>83.897077633143908</c:v>
+                  <c:v>83.949019778730673</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>87.834575342927877</c:v>
+                  <c:v>87.875922576815725</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>91.831751895477055</c:v>
+                  <c:v>91.860925853275106</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95.887369501532461</c:v>
+                  <c:v>95.902765841310668</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>100</c:v>
@@ -9432,7 +9432,7 @@
   <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9705,19 +9705,19 @@
       </c>
       <c r="K19" s="18" cm="1">
         <f t="array" ref="K19:O20">[1]!MF_calibr_pipe(Q_,fw_,L_,p0_,p1_,0,+PVRstr1_,theta_,id_,Hydr_corr_,t0_,t1_,calibr_grav,calibr_fric,,Q_gas_free_)</f>
-        <v>1.13323974609375</v>
+        <v>1.134674072265625</v>
       </c>
       <c r="L19" s="19" t="str">
         <v>calibr_grav</v>
       </c>
       <c r="M19" s="19">
-        <v>4.9719852199814341E-4</v>
+        <v>2.2209364583147817E-4</v>
       </c>
       <c r="N19" s="19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O19" s="20" t="str">
-        <v>solve_equation_bisection: done by  14 iterations, tolerance 0.001</v>
+        <v>solve_equation_bisection: done by  15 iterations, tolerance 0.001</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -9854,7 +9854,7 @@
       <c r="A31" s="14"/>
       <c r="C31" s="18" cm="1">
         <f t="array" ref="C31:K53">[1]!MF_p_pipe_atma(Q_,fw_,L_,p0_,0,PVRstr1_,theta_,id_,Hydr_corr_,t0_,t1_,calibr_grav,calibr_fric,,Q_gas_free_)</f>
-        <v>91.76852608657633</v>
+        <v>91.710119171298743</v>
       </c>
       <c r="D31" s="19">
         <v>80</v>
@@ -9866,7 +9866,7 @@
         <v>40</v>
       </c>
       <c r="G31" s="19">
-        <v>91.76852608657633</v>
+        <v>91.710119171298743</v>
       </c>
       <c r="H31" s="19">
         <v>80</v>
@@ -9882,13 +9882,13 @@
       </c>
       <c r="M31" s="18" cm="1">
         <f t="array" ref="M31:U53">[1]!MF_p_pipe_atma(Q_,fw_,L_,p1_,1,PVRstr1_,theta_,id_,Hydr_corr_,t1_,t0_,calibr_grav,calibr_fric,,Q_gas_free_)</f>
-        <v>31.685360867303029</v>
+        <v>31.756466646563716</v>
       </c>
       <c r="N31" s="19">
         <v>40</v>
       </c>
       <c r="O31" s="19">
-        <v>31.685360867303029</v>
+        <v>31.756466646563716</v>
       </c>
       <c r="P31" s="19">
         <v>40</v>
@@ -10062,13 +10062,13 @@
         <v>0</v>
       </c>
       <c r="P34" s="25">
-        <v>31.685360867303029</v>
+        <v>31.756466646563716</v>
       </c>
       <c r="Q34" s="25">
         <v>40</v>
       </c>
       <c r="R34" s="25">
-        <v>0.19244976343436151</v>
+        <v>0.19318194147880505</v>
       </c>
       <c r="S34" s="25">
         <v>1</v>
@@ -10092,13 +10092,13 @@
         <v>105.26315789473684</v>
       </c>
       <c r="F35" s="25">
-        <v>28.813695187983342</v>
+        <v>28.816474058431645</v>
       </c>
       <c r="G35" s="25">
         <v>42.10526315789474</v>
       </c>
       <c r="H35" s="25">
-        <v>0.17984541992956538</v>
+        <v>0.18033670675383556</v>
       </c>
       <c r="I35" s="25">
         <v>1</v>
@@ -10119,13 +10119,13 @@
         <v>105.26315789473684</v>
       </c>
       <c r="P35" s="25">
-        <v>34.875719045612456</v>
+        <v>34.949837076811733</v>
       </c>
       <c r="Q35" s="25">
         <v>42.10526315789474</v>
       </c>
       <c r="R35" s="25">
-        <v>0.20415498976548713</v>
+        <v>0.20483528000150814</v>
       </c>
       <c r="S35" s="25">
         <v>1</v>
@@ -10149,13 +10149,13 @@
         <v>210.52631578947367</v>
       </c>
       <c r="F36" s="25">
-        <v>32.009777120843658</v>
+        <v>32.015616460687589</v>
       </c>
       <c r="G36" s="25">
         <v>44.210526315789473</v>
       </c>
       <c r="H36" s="25">
-        <v>0.19182919033191065</v>
+        <v>0.19228897279985746</v>
       </c>
       <c r="I36" s="25">
         <v>1</v>
@@ -10176,13 +10176,13 @@
         <v>210.52631578947367</v>
       </c>
       <c r="P36" s="25">
-        <v>38.076354262287332</v>
+        <v>38.153507443562617</v>
       </c>
       <c r="Q36" s="25">
         <v>44.210526315789473</v>
       </c>
       <c r="R36" s="25">
-        <v>0.2154844151752042</v>
+        <v>0.21610044973803261</v>
       </c>
       <c r="S36" s="25">
         <v>1</v>
@@ -10206,13 +10206,13 @@
         <v>315.78947368421052</v>
       </c>
       <c r="F37" s="25">
-        <v>35.196296954093313</v>
+        <v>35.204975070401147</v>
       </c>
       <c r="G37" s="25">
         <v>46.315789473684212</v>
       </c>
       <c r="H37" s="25">
-        <v>0.20332127035940387</v>
+        <v>0.20373498920111524</v>
       </c>
       <c r="I37" s="25">
         <v>1</v>
@@ -10233,13 +10233,13 @@
         <v>315.78947368421052</v>
       </c>
       <c r="P37" s="25">
-        <v>41.300510587748377</v>
+        <v>41.380527834205864</v>
       </c>
       <c r="Q37" s="25">
         <v>46.315789473684212</v>
       </c>
       <c r="R37" s="25">
-        <v>0.22651561434812695</v>
+        <v>0.22705460167601615</v>
       </c>
       <c r="S37" s="25">
         <v>1</v>
@@ -10263,13 +10263,13 @@
         <v>421.05263157894734</v>
       </c>
       <c r="F38" s="25">
-        <v>38.391177080437814</v>
+        <v>38.402362329312488</v>
       </c>
       <c r="G38" s="25">
         <v>48.421052631578945</v>
       </c>
       <c r="H38" s="25">
-        <v>0.2144343636267797</v>
+        <v>0.21478789168404763</v>
       </c>
       <c r="I38" s="25">
         <v>1</v>
@@ -10290,13 +10290,13 @@
         <v>421.05263157894734</v>
       </c>
       <c r="P38" s="25">
-        <v>44.558115510693298</v>
+        <v>44.640658909748353</v>
       </c>
       <c r="Q38" s="25">
         <v>48.421052631578945</v>
       </c>
       <c r="R38" s="25">
-        <v>0.2373015418058744</v>
+        <v>0.23775036883381084</v>
       </c>
       <c r="S38" s="25">
         <v>1</v>
@@ -10320,13 +10320,13 @@
         <v>526.31578947368416</v>
       </c>
       <c r="F39" s="25">
-        <v>41.607455814875379</v>
+        <v>41.620708065145635</v>
       </c>
       <c r="G39" s="25">
         <v>50.526315789473685</v>
       </c>
       <c r="H39" s="25">
-        <v>0.22524503554374697</v>
+        <v>0.22552448304620759</v>
       </c>
       <c r="I39" s="25">
         <v>1</v>
@@ -10347,13 +10347,13 @@
         <v>526.31578947368416</v>
       </c>
       <c r="P39" s="25">
-        <v>47.856759088511616</v>
+        <v>47.941341182031039</v>
       </c>
       <c r="Q39" s="25">
         <v>50.526315789473685</v>
       </c>
       <c r="R39" s="25">
-        <v>0.24787804480418552</v>
+        <v>0.24822337168661046</v>
       </c>
       <c r="S39" s="25">
         <v>1</v>
@@ -10377,13 +10377,13 @@
         <v>631.57894736842104</v>
       </c>
       <c r="F40" s="25">
-        <v>44.854901864928308</v>
+        <v>44.869673935637344</v>
       </c>
       <c r="G40" s="25">
         <v>52.631578947368418</v>
       </c>
       <c r="H40" s="25">
-        <v>0.2358059458718465</v>
+        <v>0.23599756657480464</v>
       </c>
       <c r="I40" s="25">
         <v>1</v>
@@ -10404,13 +10404,13 @@
         <v>631.57894736842104</v>
       </c>
       <c r="P40" s="25">
-        <v>51.202309020727967</v>
+        <v>51.288304745980604</v>
       </c>
       <c r="Q40" s="25">
         <v>52.631578947368418</v>
       </c>
       <c r="R40" s="25">
-        <v>0.25826864884733136</v>
+        <v>0.25849700923201024</v>
       </c>
       <c r="S40" s="25">
         <v>1</v>
@@ -10434,13 +10434,13 @@
         <v>736.8421052631578</v>
       </c>
       <c r="F41" s="25">
-        <v>48.140982108436127</v>
+        <v>48.156621357882486</v>
       </c>
       <c r="G41" s="25">
         <v>54.736842105263158</v>
       </c>
       <c r="H41" s="25">
-        <v>0.24615317939443779</v>
+        <v>0.2462433417573742</v>
       </c>
       <c r="I41" s="25">
         <v>1</v>
@@ -10461,13 +10461,13 @@
         <v>736.8421052631578</v>
       </c>
       <c r="P41" s="25">
-        <v>54.599312969652956</v>
+        <v>54.685968773825238</v>
       </c>
       <c r="Q41" s="25">
         <v>54.736842105263158</v>
       </c>
       <c r="R41" s="25">
-        <v>0.26848778092459302</v>
+        <v>0.26858569261153148</v>
       </c>
       <c r="S41" s="25">
         <v>1</v>
@@ -10491,13 +10491,13 @@
         <v>842.10526315789468</v>
       </c>
       <c r="F42" s="25">
-        <v>51.471470795958666</v>
+        <v>51.487221074214936</v>
       </c>
       <c r="G42" s="25">
         <v>56.84210526315789</v>
       </c>
       <c r="H42" s="25">
-        <v>0.256310911319032</v>
+        <v>0.2562861147438284</v>
       </c>
       <c r="I42" s="25">
         <v>1</v>
@@ -10518,13 +10518,13 @@
         <v>842.10526315789468</v>
       </c>
       <c r="P42" s="25">
-        <v>58.051271318623961</v>
+        <v>58.137712925475526</v>
       </c>
       <c r="Q42" s="25">
         <v>56.84210526315789</v>
       </c>
       <c r="R42" s="25">
-        <v>0.27854305725840511</v>
+        <v>0.27849714395800429</v>
       </c>
       <c r="S42" s="25">
         <v>1</v>
@@ -10548,13 +10548,13 @@
         <v>947.36842105263156</v>
       </c>
       <c r="F43" s="25">
-        <v>54.850848942495702</v>
+        <v>54.86585309932088</v>
       </c>
       <c r="G43" s="25">
         <v>58.94736842105263</v>
       </c>
       <c r="H43" s="25">
-        <v>0.26629454138911518</v>
+        <v>0.26614146512333886</v>
       </c>
       <c r="I43" s="25">
         <v>1</v>
@@ -10575,13 +10575,13 @@
         <v>947.36842105263156</v>
       </c>
       <c r="P43" s="25">
-        <v>61.5608285223298</v>
+        <v>61.646068254621525</v>
       </c>
       <c r="Q43" s="25">
         <v>58.94736842105263</v>
       </c>
       <c r="R43" s="25">
-        <v>0.28843698809926049</v>
+        <v>0.2882341106836423</v>
       </c>
       <c r="S43" s="25">
         <v>1</v>
@@ -10605,13 +10605,13 @@
         <v>1052.6315789473683</v>
       </c>
       <c r="F44" s="25">
-        <v>58.28257568615301</v>
+        <v>58.295878789909068</v>
       </c>
       <c r="G44" s="25">
         <v>61.05263157894737</v>
       </c>
       <c r="H44" s="25">
-        <v>0.27611290745147726</v>
+        <v>0.27581848352087429</v>
       </c>
       <c r="I44" s="25">
         <v>1</v>
@@ -10632,13 +10632,13 @@
         <v>1052.6315789473683</v>
       </c>
       <c r="P44" s="25">
-        <v>65.129912129895487</v>
+        <v>65.21285634659192</v>
       </c>
       <c r="Q44" s="25">
         <v>61.05263157894737</v>
       </c>
       <c r="R44" s="25">
-        <v>0.29816830391658689</v>
+        <v>0.29779569816571028</v>
       </c>
       <c r="S44" s="25">
         <v>1</v>
@@ -10662,13 +10662,13 @@
         <v>1157.8947368421052</v>
       </c>
       <c r="F45" s="25">
-        <v>61.769278941468897</v>
+        <v>61.779832323072817</v>
       </c>
       <c r="G45" s="25">
         <v>63.157894736842103</v>
       </c>
       <c r="H45" s="25">
-        <v>0.28576992286878061</v>
+        <v>0.28532142630457774</v>
       </c>
       <c r="I45" s="25">
         <v>1</v>
@@ -10689,13 +10689,13 @@
         <v>1157.8947368421052</v>
       </c>
       <c r="P45" s="25">
-        <v>68.759837647594594</v>
+        <v>68.839294631852056</v>
       </c>
       <c r="Q45" s="25">
         <v>63.157894736842103</v>
       </c>
       <c r="R45" s="25">
-        <v>0.30773302333772151</v>
+        <v>0.30717844037946934</v>
       </c>
       <c r="S45" s="25">
         <v>1</v>
@@ -10719,13 +10719,13 @@
         <v>1263.1578947368421</v>
       </c>
       <c r="F46" s="25">
-        <v>65.312893923432213</v>
+        <v>65.319560116037309</v>
       </c>
       <c r="G46" s="25">
         <v>65.263157894736835</v>
       </c>
       <c r="H46" s="25">
-        <v>0.29526583844231263</v>
+        <v>0.29465098907265236</v>
       </c>
       <c r="I46" s="25">
         <v>1</v>
@@ -10746,13 +10746,13 @@
         <v>1263.1578947368421</v>
       </c>
       <c r="P46" s="25">
-        <v>72.451390878674374</v>
+        <v>72.526079358133586</v>
       </c>
       <c r="Q46" s="25">
         <v>65.263157894736835</v>
       </c>
       <c r="R46" s="25">
-        <v>0.31712533385867453</v>
+        <v>0.316377179157115</v>
       </c>
       <c r="S46" s="25">
         <v>1</v>
@@ -10776,13 +10776,13 @@
         <v>1368.421052631579</v>
       </c>
       <c r="F47" s="25">
-        <v>68.914767396919416</v>
+        <v>68.916325998649896</v>
       </c>
       <c r="G47" s="25">
         <v>67.368421052631575</v>
       </c>
       <c r="H47" s="25">
-        <v>0.30459824817371506</v>
+        <v>0.30380531885773604</v>
       </c>
       <c r="I47" s="25">
         <v>1</v>
@@ -10803,13 +10803,13 @@
         <v>1368.421052631579</v>
       </c>
       <c r="P47" s="25">
-        <v>76.204895310895182</v>
+        <v>76.27345367933728</v>
       </c>
       <c r="Q47" s="25">
         <v>67.368421052631575</v>
       </c>
       <c r="R47" s="25">
-        <v>0.32633832682880543</v>
+        <v>0.32538579362539538</v>
       </c>
       <c r="S47" s="25">
         <v>1</v>
@@ -10833,13 +10833,13 @@
         <v>1473.6842105263156</v>
       </c>
       <c r="F48" s="25">
-        <v>72.575739102947466</v>
+        <v>72.570893548184131</v>
       </c>
       <c r="G48" s="25">
         <v>69.473684210526315</v>
       </c>
       <c r="H48" s="25">
-        <v>0.31376291046919996</v>
+        <v>0.31278083714223692</v>
       </c>
       <c r="I48" s="25">
         <v>1</v>
@@ -10860,13 +10860,13 @@
         <v>1473.6842105263156</v>
       </c>
       <c r="P48" s="25">
-        <v>80.020269497520843</v>
+        <v>80.081265723332919</v>
       </c>
       <c r="Q48" s="25">
         <v>69.473684210526315</v>
       </c>
       <c r="R48" s="25">
-        <v>0.3353646106174541</v>
+        <v>0.3341978041261901</v>
       </c>
       <c r="S48" s="25">
         <v>1</v>
@@ -10890,13 +10890,13 @@
         <v>1578.9473684210525</v>
       </c>
       <c r="F49" s="25">
-        <v>76.296207836104557</v>
+        <v>76.283593022289693</v>
       </c>
       <c r="G49" s="25">
         <v>71.578947368421055</v>
       </c>
       <c r="H49" s="25">
-        <v>0.32275442776428581</v>
+        <v>0.32157291718125763</v>
       </c>
       <c r="I49" s="25">
         <v>1</v>
@@ -10917,13 +10917,13 @@
         <v>1578.9473684210525</v>
       </c>
       <c r="P49" s="25">
-        <v>83.897077633143908</v>
+        <v>83.949019778730673</v>
       </c>
       <c r="Q49" s="25">
         <v>71.578947368421055</v>
       </c>
       <c r="R49" s="25">
-        <v>0.34419681578188549</v>
+        <v>0.34280686511991465</v>
       </c>
       <c r="S49" s="25">
         <v>1</v>
@@ -10947,13 +10947,13 @@
         <v>1684.2105263157894</v>
       </c>
       <c r="F50" s="25">
-        <v>80.076187090566123</v>
+        <v>80.054377774081019</v>
       </c>
       <c r="G50" s="25">
         <v>73.68421052631578</v>
       </c>
       <c r="H50" s="25">
-        <v>0.33156681032422919</v>
+        <v>0.33017644200355212</v>
       </c>
       <c r="I50" s="25">
         <v>1</v>
@@ -10974,13 +10974,13 @@
         <v>1684.2105263157894</v>
       </c>
       <c r="P50" s="25">
-        <v>87.834575342927877</v>
+        <v>87.875922576815725</v>
       </c>
       <c r="Q50" s="25">
         <v>73.68421052631578</v>
       </c>
       <c r="R50" s="25">
-        <v>0.35282800081634225</v>
+        <v>0.35120715653785384</v>
       </c>
       <c r="S50" s="25">
         <v>1</v>
@@ -11004,13 +11004,13 @@
         <v>1789.4736842105262</v>
       </c>
       <c r="F51" s="25">
-        <v>83.915353500049193</v>
+        <v>83.882873348067861</v>
       </c>
       <c r="G51" s="25">
         <v>75.78947368421052</v>
       </c>
       <c r="H51" s="25">
-        <v>0.34019393985031032</v>
+        <v>0.33858625944684351</v>
       </c>
       <c r="I51" s="25">
         <v>1</v>
@@ -11031,13 +11031,13 @@
         <v>1789.4736842105262</v>
       </c>
       <c r="P51" s="25">
-        <v>91.831751895477055</v>
+        <v>91.860925853275106</v>
       </c>
       <c r="Q51" s="25">
         <v>75.78947368421052</v>
       </c>
       <c r="R51" s="25">
-        <v>0.36125196494806727</v>
+        <v>0.35939368105038338</v>
       </c>
       <c r="S51" s="25">
         <v>1</v>
@@ -11061,13 +11061,13 @@
         <v>1894.7368421052631</v>
       </c>
       <c r="F52" s="25">
-        <v>87.813090153453189</v>
+        <v>87.768421320035458</v>
       </c>
       <c r="G52" s="25">
         <v>77.89473684210526</v>
       </c>
       <c r="H52" s="25">
-        <v>0.34862994293844785</v>
+        <v>0.34679754508883531</v>
       </c>
       <c r="I52" s="25">
         <v>1</v>
@@ -11088,13 +11088,13 @@
         <v>1894.7368421052631</v>
       </c>
       <c r="P52" s="25">
-        <v>95.887369501532461</v>
+        <v>95.902765841310668</v>
       </c>
       <c r="Q52" s="25">
         <v>77.89473684210526</v>
       </c>
       <c r="R52" s="25">
-        <v>0.36946347425567766</v>
+        <v>0.36736247454855314</v>
       </c>
       <c r="S52" s="25">
         <v>1</v>
@@ -11118,13 +11118,13 @@
         <v>2000</v>
       </c>
       <c r="F53" s="22">
-        <v>91.76852608657633</v>
+        <v>91.710119171298743</v>
       </c>
       <c r="G53" s="22">
         <v>80</v>
       </c>
       <c r="H53" s="22">
-        <v>0.3568694817708451</v>
+        <v>0.35480608131369684</v>
       </c>
       <c r="I53" s="22">
         <v>1</v>
@@ -11151,7 +11151,7 @@
         <v>80</v>
       </c>
       <c r="R53" s="22">
-        <v>0.37745840823925542</v>
+        <v>0.37511073792592414</v>
       </c>
       <c r="S53" s="22">
         <v>1</v>

--- a/examples/ex050.MF_pipe.xlsx
+++ b/examples/ex050.MF_pipe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28724269-3C72-4B04-8B3E-AE593884188B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1745B7-B09A-4E23-BD9C-59FBD3266F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33975" yWindow="840" windowWidth="27990" windowHeight="19740" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MF 1 " sheetId="118" r:id="rId1"/>
@@ -9431,8 +9431,8 @@
   </sheetPr>
   <dimension ref="A1:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
